--- a/medicine/Enfance/Vincent_Pianina/Vincent_Pianina.xlsx
+++ b/medicine/Enfance/Vincent_Pianina/Vincent_Pianina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Pianina est un auteur-dessinateur de littérature d'enfance et de jeunesse ainsi que de bande dessinée, né 17 janvier 1985 à Lyon[1]. Il est également réalisateur de films d'animation.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Pianina est un auteur-dessinateur de littérature d'enfance et de jeunesse ainsi que de bande dessinée, né 17 janvier 1985 à Lyon. Il est également réalisateur de films d'animation.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Pianina obtient un bac d’Arts appliqués, puis il intègre l'École Émile Cohl en 2004[1], et cofonde le collection Arbitraire en 2005[2].
-En 2009, avec Davide Cali, il publie le premier tome de la série BD 10 petits insectes, qui est en Sélection officielle au Festival d'Angoulême 2010[3]. Le deuxième tome paraît en 2011[4] et le troisième en 2013[5].
-Il écrit et illustre l'ouvrage « humoristique[6] » Le secret très secret du Maître du secret en 2022, l'histoire d'un jeune garçon en colonie de vacances, en quête du « maître du secret[6] ». Pour Le Soir : « Fabuleux jeu de piste, le nouvel album de Vincent Pianina livre un récit ludique et loufoque[7] ». L'ouvrage est sélectionné dans la catégorie Carrément Beau pour le  Prix Sorcières 2022[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Pianina obtient un bac d’Arts appliqués, puis il intègre l'École Émile Cohl en 2004, et cofonde le collection Arbitraire en 2005.
+En 2009, avec Davide Cali, il publie le premier tome de la série BD 10 petits insectes, qui est en Sélection officielle au Festival d'Angoulême 2010. Le deuxième tome paraît en 2011 et le troisième en 2013.
+Il écrit et illustre l'ouvrage « humoristique » Le secret très secret du Maître du secret en 2022, l'histoire d'un jeune garçon en colonie de vacances, en quête du « maître du secret ». Pour Le Soir : « Fabuleux jeu de piste, le nouvel album de Vincent Pianina livre un récit ludique et loufoque ». L'ouvrage est sélectionné dans la catégorie Carrément Beau pour le  Prix Sorcières 2022.
 </t>
         </is>
       </c>
@@ -546,71 +560,146 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres pour la jeunesse
-En piste, tache ![9], Thierry Magnier, 2012
-Lumières : l'"Encyclopédie" revisitée, 1713-2013[10], textes de Franck Prévot, illustrations de Vincent Pianina, Martin Jarrie, Régis Lejonc, Charles Dutertre et al. , Éd. l'Édune, 2013
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En piste, tache !, Thierry Magnier, 2012
+Lumières : l'"Encyclopédie" revisitée, 1713-2013, textes de Franck Prévot, illustrations de Vincent Pianina, Martin Jarrie, Régis Lejonc, Charles Dutertre et al. , Éd. l'Édune, 2013
 Jungle, Gallimard Jeunesse Giboulées, 2013
 Ours Molaire, Gallimard Jeunesse Giboulées, 2014
-Le magicien, etc.[11], Thierry Magnier, 2015
+Le magicien, etc., Thierry Magnier, 2015
 Le jour d'Igor - écrit par Agnes Debacker - collection Mouche de l'École des loisirs, 2016
-La partie de cache-cache[12] - écrit par Camille Floue - Hélium, 2017
-Le chat le plus mignon du monde[13] , Thierry Magnier, 2017
+La partie de cache-cache - écrit par Camille Floue - Hélium, 2017
+Le chat le plus mignon du monde , Thierry Magnier, 2017
 Le cahier d’activités le plus nul, éditions du Centre Pompidou, 2018
-La légendaire histoire du colibri qui sauva l'Amazonie[14], écrit par Gwendoline Raisson - collection Mouche, L'École des loisirs, 2019
-Le secret très secret du Maître du secret[6],[7], éditions Thierry Magnier, 2021
-La Dormeuse, avec Camille Floue, Albin Michel Jeunesse, 2022
-Bande dessinée
-Les Désaventures de Monsieur Patigon, éd. 6 pieds sous terre, 2007
+La légendaire histoire du colibri qui sauva l'Amazonie, écrit par Gwendoline Raisson - collection Mouche, L'École des loisirs, 2019
+Le secret très secret du Maître du secret éditions Thierry Magnier, 2021
+La Dormeuse, avec Camille Floue, Albin Michel Jeunesse, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Pianina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Pianina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Désaventures de Monsieur Patigon, éd. 6 pieds sous terre, 2007
 Le Cas Davresky, Arbitraire, 2008
 El Baile Loco, Arbitraire, 2008
 Rapide Biscuit, Arbitraire, 2009
 Surprise Mur, Arbitraire, 2010
 Série 10 petits insectes, avec Davide Cali, éditions Sarbacane
 10 petits insectes, 2009
-10 petits insectes dans le brouillard, 2011[4]
-10 petits insectes Retour vers le passé[5], 2013
-Animation
-The queen of hearts - avec Lorenzo Papace - clip pour le groupe Ödland, 2010
+10 petits insectes dans le brouillard, 2011
+10 petits insectes Retour vers le passé, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vincent_Pianina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Pianina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Animation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The queen of hearts - avec Lorenzo Papace - clip pour le groupe Ödland, 2010
 Østersøen - avec Lorenzo Papace - clip pour le groupe Ödland, 2012
 Lyon, centre du monde ! - avec Lorenzo Papace - bande-annonce d'exposition pour le musée d'Histoire de Lyon, 2013
-Gustave Doré, L’imaginaire au pouvoir[15] - avec Lorenzo Papace - bande-annonce d'exposition pour le musée d'Orsay, 2014
+Gustave Doré, L’imaginaire au pouvoir - avec Lorenzo Papace - bande-annonce d'exposition pour le musée d'Orsay, 2014
 Générique de la série Les aventuriers de l'Art Moderne - avec Lorenzo Papace - Arte / Silex films, 2015
 Super fière sur mon bulldozer - avec Bertrand Sallé - clip pour la musicienne Maud Octallinn, 2017</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Vincent_Pianina</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vincent_Pianina</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2010 : Sélection officielle Festival d'Angoulême[3] pour 10 petits insectes avec Davide Cali
-2011 : Prix Tam-Tam[16] catégorie Dlire/Canal BD, bande dessinée, pour 10 petits insectes avec Davide Cali
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2010 : Sélection officielle Festival d'Angoulême pour 10 petits insectes avec Davide Cali
+2011 : Prix Tam-Tam catégorie Dlire/Canal BD, bande dessinée, pour 10 petits insectes avec Davide Cali
 2022 :
-Prix Graoully[17] du Festival Le Livre à Metz pour Le secret très secret du maître du secret
-Sélection Prix Sorcières[8] Catégorie Carrément beau maxi pour Le secret très secret du Maître du Secret
-Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[18] en 2024 :  La légendaire histoire du colibri qui sauva l'Amazonie (2019), de Gwendoline Raisson, qu'il a illustré.
+Prix Graoully du Festival Le Livre à Metz pour Le secret très secret du maître du secret
+Sélection Prix Sorcières Catégorie Carrément beau maxi pour Le secret très secret du Maître du Secret
+Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024 :  La légendaire histoire du colibri qui sauva l'Amazonie (2019), de Gwendoline Raisson, qu'il a illustré.
 </t>
         </is>
       </c>
